--- a/sources/Mari_Western_data.xlsx
+++ b/sources/Mari_Western_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1011">
   <si>
     <t>language_no</t>
   </si>
@@ -2532,30 +2532,15 @@
     <t>dono</t>
   </si>
   <si>
-    <t>gə̈c</t>
-  </si>
-  <si>
-    <t>gan'</t>
-  </si>
-  <si>
     <t>DAT</t>
   </si>
   <si>
     <t>ILL</t>
   </si>
   <si>
-    <t xml:space="preserve">gišän </t>
-  </si>
-  <si>
-    <t>və̈kə̈</t>
-  </si>
-  <si>
     <t>LAT</t>
   </si>
   <si>
-    <t>paštеk</t>
-  </si>
-  <si>
     <t>karšt-</t>
   </si>
   <si>
@@ -2565,9 +2550,6 @@
     <t>GENNOM</t>
   </si>
   <si>
-    <t>То, что болит, вызывает согласование, например: 'pet'a-n jal-vlä-žə̈ karšt-at' петя-GEN нога-PL-POSS.3SG болеть-NPST.3PL. Со структурой составляющих не совсем понятно, но по аналогии с другими языками пишу пока так</t>
-  </si>
-  <si>
     <t>cerlän-</t>
   </si>
   <si>
@@ -2595,9 +2577,6 @@
     <t>DATNOM</t>
   </si>
   <si>
-    <t>Деньги -- нормальное подлежащее (ср. pet'alan rubə̑l'vläžə̈ sität" петя-DAT рубль-PL-POSS.3SG хватать-NPST.3PL). Этот вариант выбирается потму что а) в нем точно Петя актант глагола, б) этот вариант обычно выдается первым</t>
-  </si>
-  <si>
     <t>ə̑l-</t>
   </si>
   <si>
@@ -2607,9 +2586,6 @@
     <t>NOMgan</t>
   </si>
   <si>
-    <t>Глагол быть + 'как'</t>
-  </si>
-  <si>
     <t>ə̈n'än-</t>
   </si>
   <si>
@@ -2640,15 +2616,9 @@
     <t>NOMILL</t>
   </si>
   <si>
-    <t>Омонимично "кусать", но это другой глагол (другое спряжение). Деление на глаголы, которые требуют ILL и və̈kə̈, во много условно: для некоторых глаголов можно присоединять и второй актант, маркированный ILL, и послелог və̈kə̈, имеющий этот самый ILL в своем составе. Я ориентировался на то, что представлено в примерах. Кажется, в получившемся делении есть какой-то смысл: ILL возник в тех случаях, когда актант обозначает сам по себе достигаемую точку: дом, берег, вода. Одушевленные и метафорические вещи "выбирают" послелог. Ксюша подтвердила это наблюдение, добавив, что "иллатив употребляется с одушевленными в значении профессии вроде "я учусь на повара" (про və̈kə̈ там не знаю), но в принципе это тоже в каком-то роде достигаемая точка."</t>
-  </si>
-  <si>
     <t>mad-ə̑n näl-</t>
   </si>
   <si>
-    <t>CV ("играя, взял")</t>
-  </si>
-  <si>
     <t>läkt-</t>
   </si>
   <si>
@@ -2676,9 +2646,6 @@
     <t>šo-</t>
   </si>
   <si>
-    <t>Желательно использовать глагол, обозначающий способ движения (плыть). Управление в более простой конструкции и в более естественной сериальной конструкции совпадает.</t>
-  </si>
-  <si>
     <t>tə̈käl-</t>
   </si>
   <si>
@@ -2688,9 +2655,6 @@
     <t>kelš</t>
   </si>
   <si>
-    <t>Разница между don и dono не обнаружена. Это тот же глагол, что нравиться (58), но в этой модели управления создается нужное значение.</t>
-  </si>
-  <si>
     <t>šan-</t>
   </si>
   <si>
@@ -2715,18 +2679,12 @@
     <t>mond-</t>
   </si>
   <si>
-    <t>Ксюша: "У глаголов в активном и пассивном залогах разное спряжение: в активном второе (vaštaltaš II -- менять), в пассивном первое (vaštaltaš I -- меняться). Вообще есть суффикс -alt-, который меняет спряжение и делает глагол пассивным, но тут, видимо, корень заканчивается на -alt-, поэтому происходит гаплология". Егор: "Здесь сложно. Во-первых, суффиксов -alt- два: пассив/медий -- делает глаголы первого спряжения (наш случай), и делимитатив (или еще что-то подобное аспектуальное, мы в процессе постижения :)) -- делает глаголы второго спряжения (как глагол 'менять', см. выше). При этом есть глагол vaštaš, который по словарю означает 'переводить, перевозить, переносить', и есть послелог vašt 'сквозь, через' (про диахроническую связь или ее отсутствие в перечисленных случаях сходу воздержусь говорить). Пожалуй, в анкете я бы не мучился и просто написал глоссу "меняться". А по сути случай как с глаголом "влиять"; они, похоже, подбирают что-то контекстуально близкое."</t>
-  </si>
-  <si>
     <t>sə̈gə̈räl-</t>
   </si>
   <si>
     <t>päl-ə̈mə̈ li-</t>
   </si>
   <si>
-    <t>NV ("знать-NMLZ стать")</t>
-  </si>
-  <si>
     <t>päl-</t>
   </si>
   <si>
@@ -2739,9 +2697,6 @@
     <t>šə̈l-ə̈n kašt-</t>
   </si>
   <si>
-    <t>CV. "ходит, прячась". Егор: "kaštaš -- "ходить", (а не "идти"). Но сколько-либо регулярным маркером хабитуалиса он как будто бы не является. Видимо, сказали нечто прагматически им понятное -- ну вот ходит Петя [в своей жизни по селу] и всё прячется от Маши."</t>
-  </si>
-  <si>
     <t>jämdə̈l-</t>
   </si>
   <si>
@@ -2754,9 +2709,6 @@
     <t>ulə̑</t>
   </si>
   <si>
-    <t>Предикат -- это квантор существования, он не согласовывается ни с чем. Тесты на составляющие никто не применял.</t>
-  </si>
-  <si>
     <t>kə̈čäl-</t>
   </si>
   <si>
@@ -2787,9 +2739,6 @@
     <t>jə̑gə̑ltə̑l-</t>
   </si>
   <si>
-    <t>Выбираю (СС) первый вариант, потому что он был записан первым (а еще чуть-чуть потому, что он точно не калькирован с русского и непереходный).</t>
-  </si>
-  <si>
     <t>jarat-</t>
   </si>
   <si>
@@ -2799,9 +2748,6 @@
     <t>maxaj-</t>
   </si>
   <si>
-    <t>Заимствование из русского. Есть еще вариант TR с тем же глаголом. КС: "Варианты равноправны по смыслу, (берем) первый, так как непереходный". Ксюша: (еще) "Есть марийский глагол ə̈rzäš. С ним, кстати, первой реакцией аккузатив, а с maxajaš -- послелог dono. Но и наоборот тоже можно"</t>
-  </si>
-  <si>
     <t>šanə̑kal-</t>
   </si>
   <si>
@@ -2817,9 +2763,6 @@
     <t>NOMNOM</t>
   </si>
   <si>
-    <t>NB это глагол man-aš 'говорить' с суффиксом медия/пассива -alt-.</t>
-  </si>
-  <si>
     <t>nakaz-</t>
   </si>
   <si>
@@ -2844,9 +2787,6 @@
     <t>ak sit-</t>
   </si>
   <si>
-    <t>Отрицание + достаточно (#5). В отличие от примера 5, здесь звездочка на генитив.</t>
-  </si>
-  <si>
     <t>užə̑n ak kerd</t>
   </si>
   <si>
@@ -2856,9 +2796,6 @@
     <t>kelš-</t>
   </si>
   <si>
-    <t>С kel- "быть нужным" никак не связано. Тот же глагол, что в 24 (дружить), но там другая модель управления</t>
-  </si>
-  <si>
     <t>kel-</t>
   </si>
   <si>
@@ -2868,9 +2805,6 @@
     <t>kod-</t>
   </si>
   <si>
-    <t>Тот же глагол, что 65. Как и в других случаях с этой моделью, непонятна структура составляющих. Деньги теоретически вызывают согласование ("pet'a-n pi-vlä-žə̈ kod-ə̑n-ə̑t" петя-GEN собака-PL-POSS.3SG оставаться-PFV-3PL)</t>
-  </si>
-  <si>
     <t>Именно это значение выразить не получается (в предложенном переводе "рассказывать")</t>
   </si>
   <si>
@@ -2880,12 +2814,6 @@
     <t>ajə̑rtemält-</t>
   </si>
   <si>
-    <t>Непонятно, есть ли какая-то разница между gə̈с и gə̈сə̈n, Ксюша пишет, что нет.</t>
-  </si>
-  <si>
-    <t>Лучше использовать сериальную конструкцию, где есть еще глагол способа движения ("идя"), хотя теоретически можно и без нее. Непонятно, есть ли какая-то разница между gə̈с и gə̈сə̈n, Ксюша пишет, что нет.</t>
-  </si>
-  <si>
     <t>kə̑ral-</t>
   </si>
   <si>
@@ -2934,36 +2862,21 @@
     <t>pə̑cked-ält-</t>
   </si>
   <si>
-    <t>Глагол имеет аффикс пассива</t>
-  </si>
-  <si>
     <t>piž-</t>
   </si>
   <si>
     <t>NOMLAT</t>
   </si>
   <si>
-    <t>Лексическое значение и модель управления связаны с глаголом piž-, а "сидеть" добавляет какие-то аспектуальные нюансы? Егор: "Глагол sə̈nz- в первом спряжении (как здесь) -- это 'садиться', грамматикализуется в маркер вхождения в состояние. Он же во втором спряжении -- 'сидеть' (не как здесь), вроде никуда не грамматикализуется. " Можно не только və̈län, но и некоторые другие послелогоги с лативом, а также (Егор) можно иллатив</t>
-  </si>
-  <si>
     <t>mad-ə̑n kolt-</t>
   </si>
   <si>
-    <t>CV ("играя, послал"). СС предположил и Ксюша подтвердила, что в данном случае синтаксически главный глагол (слать) создает именно семантику проигрыша, а не просто что-то аспектуальное.</t>
-  </si>
-  <si>
     <t>susu li-</t>
   </si>
   <si>
-    <t>NV ("радостный стать")</t>
-  </si>
-  <si>
     <t>šajə̑št-</t>
   </si>
   <si>
-    <t>pop-a (второе спряжение) глоссиуется так же, как šajə̑št-eš (первое спряжение)</t>
-  </si>
-  <si>
     <t>ə̈št-</t>
   </si>
   <si>
@@ -2979,15 +2892,9 @@
     <t>vujlat-</t>
   </si>
   <si>
-    <t>Помимо выбранного варианта возможно еще NOM+IN; NOM+ACC</t>
-  </si>
-  <si>
     <t>skučaj-</t>
   </si>
   <si>
-    <t>В переводе добавлено еще что-то вроде депиктива "один, отдельный". Ксюша: "Можно еще с другим глаголом: "maša gə̈č sə̑lə̑klana", с глаголом "грустить""</t>
-  </si>
-  <si>
     <t>keä</t>
   </si>
   <si>
@@ -2997,15 +2904,9 @@
     <t>NOMpastek</t>
   </si>
   <si>
-    <t>Семантика "следовать" возникает из-за послелога (после); сам глагол значит просто "идти". Отдельного глагола нет.</t>
-  </si>
-  <si>
     <t>val-</t>
   </si>
   <si>
-    <t>Егор: "Это глагол с несколько более общей семантикой 'спускаться, снижаться, слезать'."</t>
-  </si>
-  <si>
     <t>kolə̑tšt-</t>
   </si>
   <si>
@@ -3024,30 +2925,18 @@
     <t>jarl-alt-</t>
   </si>
   <si>
-    <t>пассив (от смешать)</t>
-  </si>
-  <si>
     <t>anž-</t>
   </si>
   <si>
-    <t>Ксюша: "Здесь можно иллатив и послелог və̈kə̈, еще vekə̈ (vel-kə̈ 'сторона-ILL2'), но это и будет "в сторону туч" (еще можно ACC, но это будет "видит тучи")"</t>
-  </si>
-  <si>
     <t>kə̑daš-</t>
   </si>
   <si>
     <t>omə̑n-eš kaj-</t>
   </si>
   <si>
-    <t>CV ("кажется во сне", "виднеется во сне")</t>
-  </si>
-  <si>
     <t>jaral li-</t>
   </si>
   <si>
-    <t>NV ("подходящий стать"). Егор: "Кажется, что и jaral и jarataš (ср. 73, С.С.) заимствованы из чувашского, см. Федотов 1990: 285. Говорить,что в марийской системе одно есть форма другого, по-видимому, некорректно. В чувашском, возможно, там и есть какие-то деривационные отношения"</t>
-  </si>
-  <si>
     <t>soredäl-</t>
   </si>
   <si>
@@ -3060,9 +2949,6 @@
     <t>lü-</t>
   </si>
   <si>
-    <t>Ксюша: "Здесь только иллатив и və̈kə̈".</t>
-  </si>
-  <si>
     <t>opt-</t>
   </si>
   <si>
@@ -3072,9 +2958,6 @@
     <t>val-en ke-</t>
   </si>
   <si>
-    <t>CV ("опустившись, ушло")</t>
-  </si>
-  <si>
     <t>pušt-</t>
   </si>
   <si>
@@ -3120,15 +3003,9 @@
     <t>tə̈rə̈n' anž-</t>
   </si>
   <si>
-    <t>Необходимое значение более или менее точно выражает такая конструкци: ""maša-m anž-en pet'a-n jäng-žə̈ jə̑l-a" маша-АСС видеть-CVB петя-GEN сердце-POSS.3SG гореть-NPST.3SG, но тут аккузативом управляет глагол anžaš." Так что больше годится по структурным соображениям вариант, который записан тут (Букв. "косо смотреть"), хотя он и не совсем идеален семантически. С этим вариантом ("косо смотрит") возможны иллатив и və̈kə̈.</t>
-  </si>
-  <si>
     <t>šə̈dešk-</t>
   </si>
   <si>
-    <t>Тот же глагол, что 122 и (незасчитанный) 128. "Ксюша: Тут вообще можно только və̈kə̈, иллатив нельзя"</t>
-  </si>
-  <si>
     <t>ör-</t>
   </si>
   <si>
@@ -3141,9 +3018,6 @@
     <t>Выразить значение "хотеть" так, чтобы актантами были две ИГ, невозможно. В семантическую структуру добавляется сентенциальный актант, при этом значение хотеть выражается дезидеративным суффиксом.</t>
   </si>
   <si>
-    <t>Тот же глагол, что 117 и (незасчитанный) 128.</t>
-  </si>
-  <si>
     <t>orlan-</t>
   </si>
   <si>
@@ -3169,6 +3043,141 @@
   </si>
   <si>
     <t>šeklän-</t>
+  </si>
+  <si>
+    <t>Actual form = NOM. То, что болит, вызывает согласование, например: 'pet'a-n jal-vlä-žə̈ karšt-at' петя-GEN нога-PL-POSS.3SG болеть-NPST.3PL. Со структурой составляющих не совсем понятно, но по аналогии с другими языками пишу пока так</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = dono. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = gə̈c. </t>
+  </si>
+  <si>
+    <t>Actual form = NOM. Деньги -- нормальное подлежащее (ср. pet'alan rubə̑l'vläžə̈ sität" петя-DAT рубль-PL-POSS.3SG хватать-NPST.3PL). Этот вариант выбирается потму что а) в нем точно Петя актант глагола, б) этот вариант обычно выдается первым</t>
+  </si>
+  <si>
+    <t>Actual form = gan'. Глагол быть + 'как'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = DAT. </t>
+  </si>
+  <si>
+    <t>Actual form = ILL. Омонимично "кусать", но это другой глагол (другое спряжение). Деление на глаголы, которые требуют ILL и və̈kə̈, во много условно: для некоторых глаголов можно присоединять и второй актант, маркированный ILL, и послелог və̈kə̈, имеющий этот самый ILL в своем составе. Я ориентировался на то, что представлено в примерах. Кажется, в получившемся делении есть какой-то смысл: ILL возник в тех случаях, когда актант обозначает сам по себе достигаемую точку: дом, берег, вода. Одушевленные и метафорические вещи "выбирают" послелог. Ксюша подтвердила это наблюдение, добавив, что "иллатив употребляется с одушевленными в значении профессии вроде "я учусь на повара" (про və̈kə̈ там не знаю), но в принципе это тоже в каком-то роде достигаемая точка."</t>
+  </si>
+  <si>
+    <t>Actual form = gə̈c. CV ("играя, взял")</t>
+  </si>
+  <si>
+    <t>Actual form = ILL. Желательно использовать глагол, обозначающий способ движения (плыть). Управление в более простой конструкции и в более естественной сериальной конструкции совпадает.</t>
+  </si>
+  <si>
+    <t>Actual form = dono. Разница между don и dono не обнаружена. Это тот же глагол, что нравиться (58), но в этой модели управления создается нужное значение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = gišän . </t>
+  </si>
+  <si>
+    <t>Actual form = dono. Ксюша: "У глаголов в активном и пассивном залогах разное спряжение: в активном второе (vaštaltaš II -- менять), в пассивном первое (vaštaltaš I -- меняться). Вообще есть суффикс -alt-, который меняет спряжение и делает глагол пассивным, но тут, видимо, корень заканчивается на -alt-, поэтому происходит гаплология". Егор: "Здесь сложно. Во-первых, суффиксов -alt- два: пассив/медий -- делает глаголы первого спряжения (наш случай), и делимитатив (или еще что-то подобное аспектуальное, мы в процессе постижения :)) -- делает глаголы второго спряжения (как глагол 'менять', см. выше). При этом есть глагол vaštaš, который по словарю означает 'переводить, перевозить, переносить', и есть послелог vašt 'сквозь, через' (про диахроническую связь или ее отсутствие в перечисленных случаях сходу воздержусь говорить). Пожалуй, в анкете я бы не мучился и просто написал глоссу "меняться". А по сути случай как с глаголом "влиять"; они, похоже, подбирают что-то контекстуально близкое."</t>
+  </si>
+  <si>
+    <t>Actual form = dono. NV ("знать-NMLZ стать")</t>
+  </si>
+  <si>
+    <t>Actual form = gə̈c. CV. "ходит, прячась". Егор: "kaštaš -- "ходить", (а не "идти"). Но сколько-либо регулярным маркером хабитуалиса он как будто бы не является. Видимо, сказали нечто прагматически им понятное -- ну вот ходит Петя [в своей жизни по селу] и всё прячется от Маши."</t>
+  </si>
+  <si>
+    <t>Actual form = NOM. Предикат -- это квантор существования, он не согласовывается ни с чем. Тесты на составляющие никто не применял.</t>
+  </si>
+  <si>
+    <t>Actual form = dono. Выбираю (СС) первый вариант, потому что он был записан первым (а еще чуть-чуть потому, что он точно не калькирован с русского и непереходный).</t>
+  </si>
+  <si>
+    <t>Actual form = dono. Заимствование из русского. Есть еще вариант TR с тем же глаголом. КС: "Варианты равноправны по смыслу, (берем) первый, так как непереходный". Ксюша: (еще) "Есть марийский глагол ə̈rzäš. С ним, кстати, первой реакцией аккузатив, а с maxajaš -- послелог dono. Но и наоборот тоже можно"</t>
+  </si>
+  <si>
+    <t>Actual form = NOM. NB это глагол man-aš 'говорить' с суффиксом медия/пассива -alt-.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = və̈kə̈. Заимствование из русского. </t>
+  </si>
+  <si>
+    <t>Actual form = NOM. Отрицание + достаточно (#5). В отличие от примера 5, здесь звездочка на генитив.</t>
+  </si>
+  <si>
+    <t>Actual form = NOM. С kel- "быть нужным" никак не связано. Тот же глагол, что в 24 (дружить), но там другая модель управления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = NOM. </t>
+  </si>
+  <si>
+    <t>Actual form = NOM. Тот же глагол, что 65. Как и в других случаях с этой моделью, непонятна структура составляющих. Деньги теоретически вызывают согласование ("pet'a-n pi-vlä-žə̈ kod-ə̑n-ə̑t" петя-GEN собака-PL-POSS.3SG оставаться-PFV-3PL)</t>
+  </si>
+  <si>
+    <t>Actual form = gə̈c. Непонятно, есть ли какая-то разница между gə̈с и gə̈сə̈n, Ксюша пишет, что нет.</t>
+  </si>
+  <si>
+    <t>Actual form = gə̈c. Лучше использовать сериальную конструкцию, где есть еще глагол способа движения ("идя"), хотя теоретически можно и без нее. Непонятно, есть ли какая-то разница между gə̈с и gə̈сə̈n, Ксюша пишет, что нет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = ILL. </t>
+  </si>
+  <si>
+    <t>Actual form = dono. Глагол имеет аффикс пассива</t>
+  </si>
+  <si>
+    <t>Actual form = LAT. Лексическое значение и модель управления связаны с глаголом piž-, а "сидеть" добавляет какие-то аспектуальные нюансы? Егор: "Глагол sə̈nz- в первом спряжении (как здесь) -- это 'садиться', грамматикализуется в маркер вхождения в состояние. Он же во втором спряжении -- 'сидеть' (не как здесь), вроде никуда не грамматикализуется. " Можно не только və̈län, но и некоторые другие послелогоги с лативом, а также (Егор) можно иллатив</t>
+  </si>
+  <si>
+    <t>Actual form = DAT. CV ("играя, послал"). СС предположил и Ксюша подтвердила, что в данном случае синтаксически главный глагол (слать) создает именно семантику проигрыша, а не просто что-то аспектуальное.</t>
+  </si>
+  <si>
+    <t>Actual form = DAT. NV ("радостный стать")</t>
+  </si>
+  <si>
+    <t>Actual form = dono. pop-a (второе спряжение) глоссиуется так же, как šajə̑št-eš (первое спряжение)</t>
+  </si>
+  <si>
+    <t>Actual form = dono. Помимо выбранного варианта возможно еще NOM+IN; NOM+ACC</t>
+  </si>
+  <si>
+    <t>Actual form = gə̈c. В переводе добавлено еще что-то вроде депиктива "один, отдельный". Ксюша: "Можно еще с другим глаголом: "maša gə̈č sə̑lə̑klana", с глаголом "грустить""</t>
+  </si>
+  <si>
+    <t>Actual form = paštеk. Семантика "следовать" возникает из-за послелога (после); сам глагол значит просто "идти". Отдельного глагола нет.</t>
+  </si>
+  <si>
+    <t>Actual form = gə̈c. Егор: "Это глагол с несколько более общей семантикой 'спускаться, снижаться, слезать'."</t>
+  </si>
+  <si>
+    <t>Actual form = dono. пассив (от смешать)</t>
+  </si>
+  <si>
+    <t>Actual form = və̈kə̈. Ксюша: "Здесь можно иллатив и послелог və̈kə̈, еще vekə̈ (vel-kə̈ 'сторона-ILL2'), но это и будет "в сторону туч" (еще можно ACC, но это будет "видит тучи")"</t>
+  </si>
+  <si>
+    <t>Actual form = NOM. CV ("кажется во сне", "виднеется во сне")</t>
+  </si>
+  <si>
+    <t>Actual form = dono. NV ("подходящий стать"). Егор: "Кажется, что и jaral и jarataš (ср. 73, С.С.) заимствованы из чувашского, см. Федотов 1990: 285. Говорить,что в марийской системе одно есть форма другого, по-видимому, некорректно. В чувашском, возможно, там и есть какие-то деривационные отношения"</t>
+  </si>
+  <si>
+    <t>Actual form = və̈kə̈. Ксюша: "Здесь только иллатив и və̈kə̈".</t>
+  </si>
+  <si>
+    <t>Actual form = ILL. CV ("опустившись, ушло")</t>
+  </si>
+  <si>
+    <t>Actual form = və̈kə̈. Необходимое значение более или менее точно выражает такая конструкци: ""maša-m anž-en pet'a-n jäng-žə̈ jə̑l-a" маша-АСС видеть-CVB петя-GEN сердце-POSS.3SG гореть-NPST.3SG, но тут аккузативом управляет глагол anžaš." Так что больше годится по структурным соображениям вариант, который записан тут (Букв. "косо смотреть"), хотя он и не совсем идеален семантически. С этим вариантом ("косо смотрит") возможны иллатив и və̈kə̈.</t>
+  </si>
+  <si>
+    <t>Actual form = və̈kə̈. Тот же глагол, что 122 и (незасчитанный) 128. "Ксюша: Тут вообще можно только və̈kə̈, иллатив нельзя"</t>
+  </si>
+  <si>
+    <t>Actual form = və̈kə̈. Тот же глагол, что 117 и (незасчитанный) 128.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = və̈kə̈. </t>
   </si>
 </sst>
 </file>
@@ -3574,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3684,10 +3693,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>793</v>
@@ -3696,11 +3705,9 @@
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>806</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="M2" s="4"/>
       <c r="N2" s="5" t="s">
         <v>536</v>
       </c>
@@ -3711,7 +3718,7 @@
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="5" t="s">
-        <v>793</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3737,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>793</v>
@@ -3749,7 +3756,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="9" t="s">
@@ -3762,7 +3769,7 @@
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="5" t="s">
-        <v>794</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3788,19 +3795,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="10" t="s">
@@ -3813,7 +3820,7 @@
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="5" t="s">
-        <v>795</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3839,17 +3846,17 @@
         <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="10" t="s">
@@ -3886,10 +3893,10 @@
         <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>793</v>
@@ -3898,11 +3905,9 @@
         <v>8</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>816</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="11" t="s">
         <v>540</v>
       </c>
@@ -3913,7 +3918,7 @@
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="5" t="s">
-        <v>793</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3939,23 +3944,21 @@
         <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>820</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="10" t="s">
         <v>541</v>
       </c>
@@ -3966,7 +3969,7 @@
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="5" t="s">
-        <v>796</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3992,19 +3995,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="10" t="s">
@@ -4017,7 +4020,7 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="5" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4043,17 +4046,17 @@
         <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="10" t="s">
@@ -4090,17 +4093,17 @@
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="10" t="s">
@@ -4137,21 +4140,19 @@
         <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>826</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="12" t="s">
         <v>545</v>
       </c>
@@ -4161,7 +4162,9 @@
         <v>673</v>
       </c>
       <c r="R11" s="8"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -4186,21 +4189,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>828</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="5" t="s">
         <v>546</v>
       </c>
@@ -4210,7 +4211,9 @@
         <v>674</v>
       </c>
       <c r="R12" s="8"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -4235,23 +4238,21 @@
         <v>66</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>831</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="M13" s="4"/>
       <c r="N13" s="10" t="s">
         <v>547</v>
       </c>
@@ -4262,7 +4263,7 @@
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="5" t="s">
-        <v>798</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4288,23 +4289,21 @@
         <v>70</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>833</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="10" t="s">
         <v>548</v>
       </c>
@@ -4315,7 +4314,7 @@
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="5" t="s">
-        <v>795</v>
+        <v>973</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4341,19 +4340,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="10" t="s">
@@ -4366,7 +4365,7 @@
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="5" t="s">
-        <v>795</v>
+        <v>968</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4392,17 +4391,17 @@
         <v>78</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="9" t="s">
@@ -4439,17 +4438,17 @@
         <v>82</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="10" t="s">
@@ -4486,19 +4485,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="10" t="s">
@@ -4511,7 +4510,7 @@
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="5" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4537,17 +4536,17 @@
         <v>90</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="10" t="s">
@@ -4584,21 +4583,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>840</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="10" t="s">
         <v>554</v>
       </c>
@@ -4608,7 +4605,9 @@
         <v>682</v>
       </c>
       <c r="R20" s="8"/>
-      <c r="S20" s="5"/>
+      <c r="S20" s="5" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
@@ -4633,17 +4632,17 @@
         <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="10" t="s">
@@ -4680,23 +4679,21 @@
         <v>102</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>843</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="9" t="s">
         <v>556</v>
       </c>
@@ -4707,7 +4704,7 @@
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="5" t="s">
-        <v>798</v>
+        <v>974</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4733,17 +4730,17 @@
         <v>106</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="10" t="s">
@@ -4780,7 +4777,7 @@
         <v>110</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>793</v>
@@ -4792,7 +4789,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="10" t="s">
@@ -4805,7 +4802,7 @@
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="5" t="s">
-        <v>794</v>
+        <v>967</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4831,7 +4828,7 @@
         <v>114</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>793</v>
@@ -4843,11 +4840,9 @@
         <v>9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>847</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="9" t="s">
         <v>559</v>
       </c>
@@ -4858,7 +4853,7 @@
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="5" t="s">
-        <v>794</v>
+        <v>975</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4884,19 +4879,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="10" t="s">
@@ -4909,7 +4904,7 @@
       </c>
       <c r="R26" s="8"/>
       <c r="S26" s="5" t="s">
-        <v>799</v>
+        <v>976</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4935,21 +4930,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>852</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M27" s="4"/>
       <c r="N27" s="10" t="s">
         <v>561</v>
       </c>
@@ -4959,7 +4952,9 @@
         <v>689</v>
       </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="5"/>
+      <c r="S27" s="5" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
@@ -4984,17 +4979,17 @@
         <v>126</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="10" t="s">
@@ -5031,17 +5026,17 @@
         <v>130</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="10" t="s">
@@ -5078,19 +5073,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="10" t="s">
@@ -5103,7 +5098,7 @@
       </c>
       <c r="R30" s="8"/>
       <c r="S30" s="5" t="s">
-        <v>799</v>
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5129,7 +5124,7 @@
         <v>138</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>793</v>
@@ -5141,11 +5136,9 @@
         <v>9</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>856</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="9" t="s">
         <v>565</v>
       </c>
@@ -5156,7 +5149,7 @@
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="5" t="s">
-        <v>794</v>
+        <v>977</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5182,17 +5175,17 @@
         <v>142</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="10" t="s">
@@ -5229,7 +5222,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>793</v>
@@ -5241,11 +5234,9 @@
         <v>9</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>859</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="9" t="s">
         <v>567</v>
       </c>
@@ -5256,7 +5247,7 @@
       </c>
       <c r="R33" s="8"/>
       <c r="S33" s="5" t="s">
-        <v>794</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5282,17 +5273,17 @@
         <v>150</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="9" t="s">
@@ -5329,21 +5320,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>862</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M35" s="4"/>
       <c r="N35" s="11" t="s">
         <v>569</v>
       </c>
@@ -5353,7 +5342,9 @@
         <v>697</v>
       </c>
       <c r="R35" s="8"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
@@ -5378,23 +5369,21 @@
         <v>158</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>864</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="5" t="s">
         <v>570</v>
       </c>
@@ -5405,7 +5394,7 @@
       </c>
       <c r="R36" s="8"/>
       <c r="S36" s="5" t="s">
-        <v>795</v>
+        <v>979</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5431,17 +5420,17 @@
         <v>162</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="10" t="s">
@@ -5478,21 +5467,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>867</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="10" t="s">
         <v>572</v>
       </c>
@@ -5502,7 +5489,9 @@
         <v>700</v>
       </c>
       <c r="R38" s="8"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
@@ -5527,10 +5516,10 @@
         <v>169</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>793</v>
@@ -5539,11 +5528,9 @@
         <v>8</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>869</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="5" t="s">
         <v>573</v>
       </c>
@@ -5554,7 +5541,7 @@
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="5" t="s">
-        <v>793</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5580,21 +5567,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>871</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M40" s="4"/>
       <c r="N40" s="5" t="s">
         <v>574</v>
       </c>
@@ -5604,7 +5589,9 @@
         <v>702</v>
       </c>
       <c r="R40" s="8"/>
-      <c r="S40" s="5"/>
+      <c r="S40" s="5" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
@@ -5629,17 +5616,17 @@
         <v>177</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="10" t="s">
@@ -5676,21 +5663,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>874</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M42" s="4"/>
       <c r="N42" s="10" t="s">
         <v>576</v>
       </c>
@@ -5700,7 +5685,9 @@
         <v>704</v>
       </c>
       <c r="R42" s="8"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
@@ -5725,17 +5712,15 @@
         <v>185</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
-        <v>876</v>
-      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="9" t="s">
         <v>577</v>
       </c>
@@ -5745,7 +5730,9 @@
         <v>705</v>
       </c>
       <c r="R43" s="8"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
@@ -5770,17 +5757,17 @@
         <v>189</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="10" t="s">
@@ -5817,17 +5804,17 @@
         <v>193</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="13" t="s">
@@ -5864,7 +5851,7 @@
         <v>197</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>793</v>
@@ -5876,11 +5863,9 @@
         <v>9</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>880</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="5" t="s">
         <v>580</v>
       </c>
@@ -5891,7 +5876,7 @@
       </c>
       <c r="R46" s="8"/>
       <c r="S46" s="5" t="s">
-        <v>794</v>
+        <v>981</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5917,21 +5902,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>882</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="10" t="s">
         <v>581</v>
       </c>
@@ -5941,7 +5924,9 @@
         <v>709</v>
       </c>
       <c r="R47" s="8"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
@@ -5966,23 +5951,21 @@
         <v>205</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>884</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="5" t="s">
         <v>582</v>
       </c>
@@ -5993,7 +5976,7 @@
       </c>
       <c r="R48" s="8"/>
       <c r="S48" s="5" t="s">
-        <v>794</v>
+        <v>982</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6019,19 +6002,19 @@
         <v>209</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="9" t="s">
@@ -6044,7 +6027,7 @@
       </c>
       <c r="R49" s="8"/>
       <c r="S49" s="5" t="s">
-        <v>799</v>
+        <v>976</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6070,17 +6053,17 @@
         <v>213</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="10" t="s">
@@ -6117,17 +6100,17 @@
         <v>217</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="10" t="s">
@@ -6164,7 +6147,7 @@
         <v>221</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>793</v>
@@ -6176,11 +6159,9 @@
         <v>9</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>890</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="M52" s="4"/>
       <c r="N52" s="10" t="s">
         <v>586</v>
       </c>
@@ -6191,7 +6172,7 @@
       </c>
       <c r="R52" s="8"/>
       <c r="S52" s="5" t="s">
-        <v>793</v>
+        <v>983</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6217,21 +6198,19 @@
         <v>225</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>892</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M53" s="4"/>
       <c r="N53" s="10" t="s">
         <v>587</v>
       </c>
@@ -6241,7 +6220,9 @@
         <v>715</v>
       </c>
       <c r="R53" s="8"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
@@ -6266,23 +6247,21 @@
         <v>229</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>892</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="9" t="s">
         <v>588</v>
       </c>
@@ -6293,7 +6272,7 @@
       </c>
       <c r="R54" s="8"/>
       <c r="S54" s="5" t="s">
-        <v>800</v>
+        <v>984</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6319,7 +6298,7 @@
         <v>233</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>793</v>
@@ -6331,7 +6310,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="9" t="s">
@@ -6344,7 +6323,7 @@
       </c>
       <c r="R55" s="8"/>
       <c r="S55" s="5" t="s">
-        <v>794</v>
+        <v>967</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6370,17 +6349,17 @@
         <v>237</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="10" t="s">
@@ -6417,10 +6396,10 @@
         <v>241</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>793</v>
@@ -6429,11 +6408,9 @@
         <v>8</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>899</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="5" t="s">
         <v>591</v>
       </c>
@@ -6444,7 +6421,7 @@
       </c>
       <c r="R57" s="8"/>
       <c r="S57" s="5" t="s">
-        <v>793</v>
+        <v>985</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6470,21 +6447,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>901</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="10" t="s">
         <v>592</v>
       </c>
@@ -6494,7 +6469,9 @@
         <v>720</v>
       </c>
       <c r="R58" s="8"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
@@ -6519,10 +6496,10 @@
         <v>249</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>793</v>
@@ -6531,11 +6508,9 @@
         <v>8</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>903</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="M59" s="4"/>
       <c r="N59" s="10" t="s">
         <v>593</v>
       </c>
@@ -6546,7 +6521,7 @@
       </c>
       <c r="R59" s="8"/>
       <c r="S59" s="5" t="s">
-        <v>793</v>
+        <v>986</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6572,10 +6547,10 @@
         <v>253</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>793</v>
@@ -6584,7 +6559,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="10" t="s">
@@ -6597,7 +6572,7 @@
       </c>
       <c r="R60" s="8"/>
       <c r="S60" s="5" t="s">
-        <v>793</v>
+        <v>987</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6623,17 +6598,17 @@
         <v>257</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="10" t="s">
@@ -6670,10 +6645,10 @@
         <v>261</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>793</v>
@@ -6682,11 +6657,9 @@
         <v>8</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>907</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="5" t="s">
         <v>596</v>
       </c>
@@ -6697,7 +6670,7 @@
       </c>
       <c r="R62" s="8"/>
       <c r="S62" s="5" t="s">
-        <v>793</v>
+        <v>988</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6723,17 +6696,15 @@
         <v>265</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4" t="s">
-        <v>908</v>
-      </c>
+      <c r="M63" s="4"/>
       <c r="N63" s="10" t="s">
         <v>597</v>
       </c>
@@ -6743,7 +6714,9 @@
         <v>725</v>
       </c>
       <c r="R63" s="8"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
@@ -6768,17 +6741,17 @@
         <v>269</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="10" t="s">
@@ -6815,23 +6788,21 @@
         <v>273</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>911</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="9" t="s">
         <v>599</v>
       </c>
@@ -6842,7 +6813,7 @@
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="5" t="s">
-        <v>795</v>
+        <v>989</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6868,23 +6839,21 @@
         <v>277</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>912</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M66" s="4"/>
       <c r="N66" s="10" t="s">
         <v>600</v>
       </c>
@@ -6895,7 +6864,7 @@
       </c>
       <c r="R66" s="8"/>
       <c r="S66" s="5" t="s">
-        <v>795</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6921,17 +6890,17 @@
         <v>281</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="10" t="s">
@@ -6968,7 +6937,7 @@
         <v>285</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>793</v>
@@ -6980,7 +6949,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="6" t="s">
@@ -6993,7 +6962,7 @@
       </c>
       <c r="R68" s="8"/>
       <c r="S68" s="5" t="s">
-        <v>794</v>
+        <v>967</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7019,17 +6988,17 @@
         <v>289</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="10" t="s">
@@ -7066,17 +7035,17 @@
         <v>293</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="10" t="s">
@@ -7113,17 +7082,17 @@
         <v>297</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="10" t="s">
@@ -7160,21 +7129,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>919</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M72" s="4"/>
       <c r="N72" s="10" t="s">
         <v>606</v>
       </c>
@@ -7184,7 +7151,9 @@
         <v>734</v>
       </c>
       <c r="R72" s="8"/>
-      <c r="S72" s="5"/>
+      <c r="S72" s="5" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
@@ -7209,17 +7178,17 @@
         <v>305</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>920</v>
+        <v>896</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="10" t="s">
@@ -7256,19 +7225,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="10" t="s">
@@ -7281,7 +7250,7 @@
       </c>
       <c r="R74" s="8"/>
       <c r="S74" s="5" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7307,21 +7276,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>922</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M75" s="4"/>
       <c r="N75" s="9" t="s">
         <v>609</v>
       </c>
@@ -7331,7 +7298,9 @@
         <v>737</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
@@ -7356,17 +7325,17 @@
         <v>317</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>923</v>
+        <v>899</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="10" t="s">
@@ -7403,17 +7372,17 @@
         <v>321</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>924</v>
+        <v>900</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="9" t="s">
@@ -7450,19 +7419,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="10" t="s">
@@ -7475,7 +7444,7 @@
       </c>
       <c r="R78" s="8"/>
       <c r="S78" s="5" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7501,17 +7470,17 @@
         <v>329</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="10" t="s">
@@ -7548,19 +7517,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>927</v>
+        <v>903</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="10" t="s">
@@ -7573,7 +7542,7 @@
       </c>
       <c r="R80" s="8"/>
       <c r="S80" s="5" t="s">
-        <v>798</v>
+        <v>991</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7599,7 +7568,7 @@
         <v>337</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>793</v>
@@ -7611,11 +7580,9 @@
         <v>9</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>929</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="9" t="s">
         <v>615</v>
       </c>
@@ -7626,7 +7593,7 @@
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="5" t="s">
-        <v>794</v>
+        <v>992</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7652,23 +7619,21 @@
         <v>341</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>932</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="M82" s="4"/>
       <c r="N82" s="10" t="s">
         <v>616</v>
       </c>
@@ -7679,7 +7644,7 @@
       </c>
       <c r="R82" s="8"/>
       <c r="S82" s="5" t="s">
-        <v>801</v>
+        <v>993</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7705,23 +7670,21 @@
         <v>345</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>934</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="M83" s="4"/>
       <c r="N83" s="10" t="s">
         <v>617</v>
       </c>
@@ -7732,7 +7695,7 @@
       </c>
       <c r="R83" s="8"/>
       <c r="S83" s="5" t="s">
-        <v>797</v>
+        <v>994</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7758,23 +7721,21 @@
         <v>349</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>936</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="10" t="s">
         <v>618</v>
       </c>
@@ -7785,7 +7746,7 @@
       </c>
       <c r="R84" s="8"/>
       <c r="S84" s="5" t="s">
-        <v>797</v>
+        <v>995</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7811,7 +7772,7 @@
         <v>353</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>937</v>
+        <v>909</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>793</v>
@@ -7823,11 +7784,9 @@
         <v>9</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>938</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M85" s="4"/>
       <c r="N85" s="10" t="s">
         <v>619</v>
       </c>
@@ -7838,7 +7797,7 @@
       </c>
       <c r="R85" s="8"/>
       <c r="S85" s="5" t="s">
-        <v>794</v>
+        <v>996</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7864,21 +7823,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>939</v>
+        <v>910</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>940</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M86" s="4"/>
       <c r="N86" s="10" t="s">
         <v>620</v>
       </c>
@@ -7888,7 +7845,9 @@
         <v>748</v>
       </c>
       <c r="R86" s="8"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
@@ -7913,21 +7872,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>942</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M87" s="4"/>
       <c r="N87" s="10" t="s">
         <v>621</v>
       </c>
@@ -7937,7 +7894,9 @@
         <v>749</v>
       </c>
       <c r="R87" s="8"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
@@ -7962,7 +7921,7 @@
         <v>365</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>943</v>
+        <v>914</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>793</v>
@@ -7974,11 +7933,9 @@
         <v>9</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>944</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M88" s="4"/>
       <c r="N88" s="9" t="s">
         <v>622</v>
       </c>
@@ -7989,7 +7946,7 @@
       </c>
       <c r="R88" s="8"/>
       <c r="S88" s="5" t="s">
-        <v>794</v>
+        <v>997</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8015,23 +7972,21 @@
         <v>369</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>945</v>
+        <v>915</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>946</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M89" s="4"/>
       <c r="N89" s="9" t="s">
         <v>623</v>
       </c>
@@ -8042,7 +7997,7 @@
       </c>
       <c r="R89" s="8"/>
       <c r="S89" s="5" t="s">
-        <v>795</v>
+        <v>998</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8068,23 +8023,21 @@
         <v>373</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>948</v>
+        <v>917</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>950</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="M90" s="4"/>
       <c r="N90" s="10" t="s">
         <v>624</v>
       </c>
@@ -8095,7 +8048,7 @@
       </c>
       <c r="R90" s="8"/>
       <c r="S90" s="5" t="s">
-        <v>802</v>
+        <v>999</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8121,23 +8074,21 @@
         <v>377</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>951</v>
+        <v>919</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>952</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="M91" s="4"/>
       <c r="N91" s="10" t="s">
         <v>625</v>
       </c>
@@ -8148,7 +8099,7 @@
       </c>
       <c r="R91" s="8"/>
       <c r="S91" s="5" t="s">
-        <v>795</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8174,21 +8125,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>954</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M92" s="4"/>
       <c r="N92" s="9" t="s">
         <v>626</v>
       </c>
@@ -8198,7 +8147,9 @@
         <v>754</v>
       </c>
       <c r="R92" s="8"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
@@ -8223,21 +8174,19 @@
         <v>385</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>956</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M93" s="4"/>
       <c r="N93" s="9" t="s">
         <v>627</v>
       </c>
@@ -8247,7 +8196,9 @@
         <v>755</v>
       </c>
       <c r="R93" s="8"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
@@ -8272,17 +8223,17 @@
         <v>389</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>957</v>
+        <v>924</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="10" t="s">
@@ -8319,7 +8270,7 @@
         <v>393</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>958</v>
+        <v>925</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>793</v>
@@ -8331,11 +8282,9 @@
         <v>9</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>959</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M95" s="4"/>
       <c r="N95" s="9" t="s">
         <v>629</v>
       </c>
@@ -8346,7 +8295,7 @@
       </c>
       <c r="R95" s="8"/>
       <c r="S95" s="5" t="s">
-        <v>794</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8372,23 +8321,21 @@
         <v>397</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>960</v>
+        <v>926</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>961</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="M96" s="4"/>
       <c r="N96" s="10" t="s">
         <v>630</v>
       </c>
@@ -8399,7 +8346,7 @@
       </c>
       <c r="R96" s="8"/>
       <c r="S96" s="5" t="s">
-        <v>800</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8425,17 +8372,17 @@
         <v>401</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>962</v>
+        <v>927</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="10" t="s">
@@ -8472,10 +8419,10 @@
         <v>405</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>963</v>
+        <v>928</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>793</v>
@@ -8484,11 +8431,9 @@
         <v>8</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>964</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="M98" s="4"/>
       <c r="N98" s="10" t="s">
         <v>632</v>
       </c>
@@ -8499,7 +8444,7 @@
       </c>
       <c r="R98" s="8"/>
       <c r="S98" s="5" t="s">
-        <v>793</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8525,7 +8470,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>965</v>
+        <v>929</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>793</v>
@@ -8537,11 +8482,9 @@
         <v>9</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>966</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="M99" s="4"/>
       <c r="N99" s="10" t="s">
         <v>633</v>
       </c>
@@ -8552,7 +8495,7 @@
       </c>
       <c r="R99" s="8"/>
       <c r="S99" s="5" t="s">
-        <v>794</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8578,17 +8521,15 @@
         <v>413</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="4" t="s">
-        <v>968</v>
-      </c>
+      <c r="M100" s="4"/>
       <c r="N100" s="10" t="s">
         <v>634</v>
       </c>
@@ -8598,7 +8539,9 @@
         <v>762</v>
       </c>
       <c r="R100" s="8"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
@@ -8623,17 +8566,17 @@
         <v>417</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>969</v>
+        <v>932</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="10" t="s">
@@ -8670,23 +8613,21 @@
         <v>421</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>970</v>
+        <v>933</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>971</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="M102" s="4"/>
       <c r="N102" s="10" t="s">
         <v>636</v>
       </c>
@@ -8697,7 +8638,7 @@
       </c>
       <c r="R102" s="8"/>
       <c r="S102" s="5" t="s">
-        <v>800</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8723,17 +8664,17 @@
         <v>425</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>972</v>
+        <v>934</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="10" t="s">
@@ -8770,17 +8711,17 @@
         <v>428</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>973</v>
+        <v>935</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="10" t="s">
@@ -8817,23 +8758,21 @@
         <v>432</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>974</v>
+        <v>936</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="M105" s="4" t="s">
-        <v>975</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="M105" s="4"/>
       <c r="N105" s="9" t="s">
         <v>639</v>
       </c>
@@ -8844,7 +8783,7 @@
       </c>
       <c r="R105" s="8"/>
       <c r="S105" s="5" t="s">
-        <v>798</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8870,17 +8809,17 @@
         <v>436</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="10" t="s">
@@ -8917,17 +8856,17 @@
         <v>439</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>977</v>
+        <v>938</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="10" t="s">
@@ -8964,17 +8903,17 @@
         <v>443</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>978</v>
+        <v>939</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="10" t="s">
@@ -9011,17 +8950,17 @@
         <v>447</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>979</v>
+        <v>940</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="10" t="s">
@@ -9058,17 +8997,17 @@
         <v>451</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>980</v>
+        <v>941</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="9" t="s">
@@ -9105,21 +9044,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>981</v>
+        <v>942</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>982</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M111" s="4"/>
       <c r="N111" s="10" t="s">
         <v>645</v>
       </c>
@@ -9129,7 +9066,9 @@
         <v>773</v>
       </c>
       <c r="R111" s="8"/>
-      <c r="S111" s="5"/>
+      <c r="S111" s="5" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
@@ -9154,19 +9093,19 @@
         <v>459</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>983</v>
+        <v>944</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="9" t="s">
@@ -9179,7 +9118,7 @@
       </c>
       <c r="R112" s="8"/>
       <c r="S112" s="5" t="s">
-        <v>795</v>
+        <v>968</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9205,7 +9144,7 @@
         <v>463</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>984</v>
+        <v>945</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>793</v>
@@ -9217,7 +9156,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="9" t="s">
@@ -9230,7 +9169,7 @@
       </c>
       <c r="R113" s="8"/>
       <c r="S113" s="5" t="s">
-        <v>794</v>
+        <v>967</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9256,21 +9195,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>985</v>
+        <v>946</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M114" s="4" t="s">
-        <v>986</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M114" s="4"/>
       <c r="N114" s="10" t="s">
         <v>648</v>
       </c>
@@ -9280,7 +9217,9 @@
         <v>776</v>
       </c>
       <c r="R114" s="8"/>
-      <c r="S114" s="5"/>
+      <c r="S114" s="5" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
@@ -9305,19 +9244,19 @@
         <v>471</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>987</v>
+        <v>948</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="10" t="s">
@@ -9330,7 +9269,7 @@
       </c>
       <c r="R115" s="8"/>
       <c r="S115" s="5" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9356,21 +9295,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>988</v>
+        <v>949</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>989</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M116" s="4"/>
       <c r="N116" s="10" t="s">
         <v>650</v>
       </c>
@@ -9380,7 +9317,9 @@
         <v>778</v>
       </c>
       <c r="R116" s="8"/>
-      <c r="S116" s="5"/>
+      <c r="S116" s="5" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
@@ -9405,23 +9344,21 @@
         <v>479</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>990</v>
+        <v>951</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>991</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="M117" s="4"/>
       <c r="N117" s="10" t="s">
         <v>651</v>
       </c>
@@ -9432,7 +9369,7 @@
       </c>
       <c r="R117" s="8"/>
       <c r="S117" s="5" t="s">
-        <v>800</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9458,23 +9395,21 @@
         <v>483</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>992</v>
+        <v>952</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>993</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="10" t="s">
         <v>652</v>
       </c>
@@ -9485,7 +9420,7 @@
       </c>
       <c r="R118" s="8"/>
       <c r="S118" s="5" t="s">
-        <v>800</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9511,19 +9446,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>994</v>
+        <v>953</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="9" t="s">
@@ -9536,7 +9471,7 @@
       </c>
       <c r="R119" s="8"/>
       <c r="S119" s="5" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9562,21 +9497,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>995</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M120" s="4"/>
       <c r="N120" s="10" t="s">
         <v>654</v>
       </c>
@@ -9586,7 +9519,9 @@
         <v>782</v>
       </c>
       <c r="R120" s="8"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
@@ -9611,17 +9546,15 @@
         <v>494</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="M121" s="4"/>
       <c r="N121" s="15" t="s">
         <v>655</v>
       </c>
@@ -9631,7 +9564,9 @@
         <v>783</v>
       </c>
       <c r="R121" s="8"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
@@ -9656,17 +9591,15 @@
         <v>498</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="4" t="s">
-        <v>997</v>
-      </c>
+      <c r="M122" s="4"/>
       <c r="N122" s="10" t="s">
         <v>656</v>
       </c>
@@ -9676,7 +9609,9 @@
         <v>784</v>
       </c>
       <c r="R122" s="8"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
@@ -9701,23 +9636,21 @@
         <v>502</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>992</v>
+        <v>952</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="M123" s="4" t="s">
-        <v>998</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="M123" s="4"/>
       <c r="N123" s="10" t="s">
         <v>652</v>
       </c>
@@ -9728,7 +9661,7 @@
       </c>
       <c r="R123" s="8"/>
       <c r="S123" s="5" t="s">
-        <v>800</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9754,19 +9687,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="M124" s="4"/>
       <c r="N124" s="10" t="s">
@@ -9779,7 +9712,7 @@
       </c>
       <c r="R124" s="8"/>
       <c r="S124" s="5" t="s">
-        <v>800</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9805,21 +9738,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1000</v>
+        <v>958</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>1001</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="M125" s="4"/>
       <c r="N125" s="10" t="s">
         <v>658</v>
       </c>
@@ -9829,7 +9760,9 @@
         <v>786</v>
       </c>
       <c r="R125" s="8"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
@@ -9854,19 +9787,19 @@
         <v>514</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="10" t="s">
@@ -9879,7 +9812,7 @@
       </c>
       <c r="R126" s="8"/>
       <c r="S126" s="5" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9905,17 +9838,15 @@
         <v>518</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="4" t="s">
-        <v>1003</v>
-      </c>
+      <c r="M127" s="4"/>
       <c r="N127" s="10" t="s">
         <v>657</v>
       </c>
@@ -9925,7 +9856,9 @@
         <v>788</v>
       </c>
       <c r="R127" s="8"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
@@ -9950,19 +9883,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1004</v>
+        <v>962</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="M128" s="4"/>
       <c r="N128" s="5" t="s">
@@ -9975,7 +9908,7 @@
       </c>
       <c r="R128" s="8"/>
       <c r="S128" s="5" t="s">
-        <v>799</v>
+        <v>976</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -10001,17 +9934,15 @@
         <v>526</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="4" t="s">
-        <v>1005</v>
-      </c>
+      <c r="M129" s="4"/>
       <c r="N129" s="10" t="s">
         <v>661</v>
       </c>
@@ -10021,7 +9952,9 @@
         <v>790</v>
       </c>
       <c r="R129" s="8"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
@@ -10046,17 +9979,15 @@
         <v>530</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="4" t="s">
-        <v>1006</v>
-      </c>
+      <c r="M130" s="4"/>
       <c r="N130" s="10" t="s">
         <v>662</v>
       </c>
@@ -10066,7 +9997,9 @@
         <v>791</v>
       </c>
       <c r="R130" s="8"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
@@ -10091,19 +10024,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1007</v>
+        <v>965</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M131" s="4"/>
       <c r="N131" s="10" t="s">
@@ -10116,7 +10049,7 @@
       </c>
       <c r="R131" s="8"/>
       <c r="S131" s="5" t="s">
-        <v>795</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Mari_Western_data.xlsx
+++ b/sources/Mari_Western_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1012">
   <si>
     <t>language_no</t>
   </si>
@@ -2547,24 +2547,15 @@
     <t>GEN</t>
   </si>
   <si>
-    <t>GENNOM</t>
-  </si>
-  <si>
     <t>cerlän-</t>
   </si>
   <si>
-    <t>NOMdono</t>
-  </si>
-  <si>
     <t>lüd-</t>
   </si>
   <si>
     <t>gec</t>
   </si>
   <si>
-    <t>NOMgec</t>
-  </si>
-  <si>
     <t>šu-</t>
   </si>
   <si>
@@ -2574,24 +2565,15 @@
     <t>sit-</t>
   </si>
   <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
     <t>ə̑l-</t>
   </si>
   <si>
     <t>gan</t>
   </si>
   <si>
-    <t>NOMgan</t>
-  </si>
-  <si>
     <t>ə̈n'än-</t>
   </si>
   <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
     <t>näl-</t>
   </si>
   <si>
@@ -2613,9 +2595,6 @@
     <t>pə̑r-</t>
   </si>
   <si>
-    <t>NOMILL</t>
-  </si>
-  <si>
     <t>mad-ə̑n näl-</t>
   </si>
   <si>
@@ -2661,9 +2640,6 @@
     <t>gisan</t>
   </si>
   <si>
-    <t>NOMgisan</t>
-  </si>
-  <si>
     <t>kačk-</t>
   </si>
   <si>
@@ -2760,9 +2736,6 @@
     <t>manalt-</t>
   </si>
   <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
     <t>nakaz-</t>
   </si>
   <si>
@@ -2775,9 +2748,6 @@
     <t>veke</t>
   </si>
   <si>
-    <t>NOMveke</t>
-  </si>
-  <si>
     <t>tem-</t>
   </si>
   <si>
@@ -2865,9 +2835,6 @@
     <t>piž-</t>
   </si>
   <si>
-    <t>NOMLAT</t>
-  </si>
-  <si>
     <t>mad-ə̑n kolt-</t>
   </si>
   <si>
@@ -2901,9 +2868,6 @@
     <t>pastek</t>
   </si>
   <si>
-    <t>NOMpastek</t>
-  </si>
-  <si>
     <t>val-</t>
   </si>
   <si>
@@ -3178,6 +3142,45 @@
   </si>
   <si>
     <t xml:space="preserve">Actual form = və̈kə̈. </t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>GEN_NOM</t>
+  </si>
+  <si>
+    <t>NOM_dono</t>
+  </si>
+  <si>
+    <t>NOM_gec</t>
+  </si>
+  <si>
+    <t>NOM_gan</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_ILL</t>
+  </si>
+  <si>
+    <t>NOM_gisan</t>
+  </si>
+  <si>
+    <t>NOM_veke</t>
+  </si>
+  <si>
+    <t>NOM_LAT</t>
+  </si>
+  <si>
+    <t>NOM_pastek</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
   </si>
 </sst>
 </file>
@@ -3583,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3705,7 +3708,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>800</v>
+        <v>1001</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="5" t="s">
@@ -3718,7 +3721,7 @@
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="5" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3744,7 +3747,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>793</v>
@@ -3756,7 +3759,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="9" t="s">
@@ -3769,7 +3772,7 @@
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="5" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3795,19 +3798,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="10" t="s">
@@ -3820,7 +3823,7 @@
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="5" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3846,17 +3849,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="10" t="s">
@@ -3893,7 +3898,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>795</v>
@@ -3905,7 +3910,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>809</v>
+        <v>1000</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="11" t="s">
@@ -3918,7 +3923,7 @@
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="5" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3944,19 +3949,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>812</v>
+        <v>1004</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="10" t="s">
@@ -3969,7 +3974,7 @@
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="5" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3995,7 +4000,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>793</v>
@@ -4007,7 +4012,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="10" t="s">
@@ -4020,7 +4025,7 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4046,17 +4051,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="10" t="s">
@@ -4093,17 +4100,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="10" t="s">
@@ -4140,17 +4149,19 @@
         <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K11" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="12" t="s">
@@ -4163,7 +4174,7 @@
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="5" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4189,17 +4200,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K12" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5" t="s">
@@ -4212,7 +4225,7 @@
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4238,7 +4251,7 @@
         <v>66</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>793</v>
@@ -4250,7 +4263,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>822</v>
+        <v>1006</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="10" t="s">
@@ -4263,7 +4276,7 @@
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="5" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4289,19 +4302,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="10" t="s">
@@ -4314,7 +4327,7 @@
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="5" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4340,19 +4353,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="10" t="s">
@@ -4365,7 +4378,7 @@
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="5" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4391,17 +4404,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="9" t="s">
@@ -4438,17 +4453,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="10" t="s">
@@ -4485,7 +4502,7 @@
         <v>86</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>793</v>
@@ -4497,7 +4514,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="10" t="s">
@@ -4510,7 +4527,7 @@
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4536,17 +4553,19 @@
         <v>90</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K19" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="10" t="s">
@@ -4583,17 +4602,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K20" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="10" t="s">
@@ -4606,7 +4627,7 @@
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="5" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4632,17 +4653,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K21" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="10" t="s">
@@ -4679,7 +4702,7 @@
         <v>102</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>793</v>
@@ -4691,7 +4714,7 @@
         <v>9</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>822</v>
+        <v>1006</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="9" t="s">
@@ -4704,7 +4727,7 @@
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="5" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4730,17 +4753,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="10" t="s">
@@ -4777,7 +4802,7 @@
         <v>110</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>793</v>
@@ -4789,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="10" t="s">
@@ -4802,7 +4827,7 @@
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="5" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4828,7 +4853,7 @@
         <v>114</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>793</v>
@@ -4840,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="9" t="s">
@@ -4853,7 +4878,7 @@
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="5" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4879,19 +4904,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>838</v>
+        <v>1007</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="10" t="s">
@@ -4904,7 +4929,7 @@
       </c>
       <c r="R26" s="8"/>
       <c r="S26" s="5" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4930,17 +4955,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K27" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="10" t="s">
@@ -4953,7 +4980,7 @@
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="5" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4979,17 +5006,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K28" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="10" t="s">
@@ -5026,17 +5055,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K29" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="10" t="s">
@@ -5073,19 +5104,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>838</v>
+        <v>1007</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="10" t="s">
@@ -5098,7 +5129,7 @@
       </c>
       <c r="R30" s="8"/>
       <c r="S30" s="5" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5124,7 +5155,7 @@
         <v>138</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>793</v>
@@ -5136,7 +5167,7 @@
         <v>9</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="9" t="s">
@@ -5149,7 +5180,7 @@
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="5" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5175,17 +5206,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K32" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="10" t="s">
@@ -5222,7 +5255,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>793</v>
@@ -5234,7 +5267,7 @@
         <v>9</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="9" t="s">
@@ -5247,7 +5280,7 @@
       </c>
       <c r="R33" s="8"/>
       <c r="S33" s="5" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5273,17 +5306,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K34" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="9" t="s">
@@ -5320,17 +5355,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K35" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="11" t="s">
@@ -5343,7 +5380,7 @@
       </c>
       <c r="R35" s="8"/>
       <c r="S35" s="5" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5369,19 +5406,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="5" t="s">
@@ -5394,7 +5431,7 @@
       </c>
       <c r="R36" s="8"/>
       <c r="S36" s="5" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5420,17 +5457,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K37" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="10" t="s">
@@ -5467,17 +5506,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K38" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="10" t="s">
@@ -5490,7 +5531,7 @@
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5516,7 +5557,7 @@
         <v>169</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>799</v>
@@ -5528,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>800</v>
+        <v>1001</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="5" t="s">
@@ -5541,7 +5582,7 @@
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="5" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5567,17 +5608,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J40" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K40" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="5" t="s">
@@ -5590,7 +5633,7 @@
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="5" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5616,17 +5659,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K41" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="10" t="s">
@@ -5663,17 +5708,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J42" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K42" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="10" t="s">
@@ -5686,7 +5733,7 @@
       </c>
       <c r="R42" s="8"/>
       <c r="S42" s="5" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5712,13 +5759,17 @@
         <v>185</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="9" t="s">
@@ -5731,7 +5782,7 @@
       </c>
       <c r="R43" s="8"/>
       <c r="S43" s="5" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5757,17 +5808,19 @@
         <v>189</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K44" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="10" t="s">
@@ -5804,17 +5857,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K45" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="13" t="s">
@@ -5851,7 +5906,7 @@
         <v>197</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>793</v>
@@ -5863,7 +5918,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="5" t="s">
@@ -5876,7 +5931,7 @@
       </c>
       <c r="R46" s="8"/>
       <c r="S46" s="5" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5902,17 +5957,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J47" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K47" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="10" t="s">
@@ -5925,7 +5982,7 @@
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="5" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5951,19 +6008,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>838</v>
+        <v>1007</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="5" t="s">
@@ -5976,7 +6033,7 @@
       </c>
       <c r="R48" s="8"/>
       <c r="S48" s="5" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6002,19 +6059,19 @@
         <v>209</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>838</v>
+        <v>1007</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="9" t="s">
@@ -6027,7 +6084,7 @@
       </c>
       <c r="R49" s="8"/>
       <c r="S49" s="5" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6053,17 +6110,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K50" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="10" t="s">
@@ -6100,17 +6159,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K51" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="10" t="s">
@@ -6147,7 +6208,7 @@
         <v>221</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>793</v>
@@ -6159,7 +6220,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>871</v>
+        <v>1011</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="10" t="s">
@@ -6172,7 +6233,7 @@
       </c>
       <c r="R52" s="8"/>
       <c r="S52" s="5" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6198,17 +6259,19 @@
         <v>225</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K53" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="10" t="s">
@@ -6221,7 +6284,7 @@
       </c>
       <c r="R53" s="8"/>
       <c r="S53" s="5" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6247,19 +6310,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="9" t="s">
@@ -6272,7 +6335,7 @@
       </c>
       <c r="R54" s="8"/>
       <c r="S54" s="5" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6298,7 +6361,7 @@
         <v>233</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>793</v>
@@ -6310,7 +6373,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="9" t="s">
@@ -6323,7 +6386,7 @@
       </c>
       <c r="R55" s="8"/>
       <c r="S55" s="5" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6349,17 +6412,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J56" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K56" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="10" t="s">
@@ -6396,7 +6461,7 @@
         <v>241</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>795</v>
@@ -6408,7 +6473,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>809</v>
+        <v>1000</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="5" t="s">
@@ -6421,7 +6486,7 @@
       </c>
       <c r="R57" s="8"/>
       <c r="S57" s="5" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6447,17 +6512,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J58" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K58" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="10" t="s">
@@ -6470,7 +6537,7 @@
       </c>
       <c r="R58" s="8"/>
       <c r="S58" s="5" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6496,7 +6563,7 @@
         <v>249</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>795</v>
@@ -6508,7 +6575,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>809</v>
+        <v>1000</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="10" t="s">
@@ -6521,7 +6588,7 @@
       </c>
       <c r="R59" s="8"/>
       <c r="S59" s="5" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6547,7 +6614,7 @@
         <v>253</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>795</v>
@@ -6559,7 +6626,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>809</v>
+        <v>1000</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="10" t="s">
@@ -6572,7 +6639,7 @@
       </c>
       <c r="R60" s="8"/>
       <c r="S60" s="5" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6598,17 +6665,19 @@
         <v>257</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J61" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K61" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="10" t="s">
@@ -6645,7 +6714,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>799</v>
@@ -6657,7 +6726,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>800</v>
+        <v>1001</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="5" t="s">
@@ -6670,7 +6739,7 @@
       </c>
       <c r="R62" s="8"/>
       <c r="S62" s="5" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6696,13 +6765,17 @@
         <v>265</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="10" t="s">
@@ -6715,7 +6788,7 @@
       </c>
       <c r="R63" s="8"/>
       <c r="S63" s="5" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6741,17 +6814,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J64" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K64" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="10" t="s">
@@ -6788,19 +6863,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="9" t="s">
@@ -6813,7 +6888,7 @@
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="5" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6839,19 +6914,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="10" t="s">
@@ -6864,7 +6939,7 @@
       </c>
       <c r="R66" s="8"/>
       <c r="S66" s="5" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6890,17 +6965,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J67" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K67" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="10" t="s">
@@ -6937,7 +7014,7 @@
         <v>285</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>793</v>
@@ -6949,7 +7026,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="6" t="s">
@@ -6962,7 +7039,7 @@
       </c>
       <c r="R68" s="8"/>
       <c r="S68" s="5" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6988,17 +7065,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J69" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K69" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="10" t="s">
@@ -7035,17 +7114,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J70" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K70" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="10" t="s">
@@ -7082,17 +7163,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J71" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K71" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="10" t="s">
@@ -7129,17 +7212,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J72" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K72" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="10" t="s">
@@ -7152,7 +7237,7 @@
       </c>
       <c r="R72" s="8"/>
       <c r="S72" s="5" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7178,17 +7263,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J73" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K73" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="10" t="s">
@@ -7225,7 +7312,7 @@
         <v>309</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>793</v>
@@ -7237,7 +7324,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="10" t="s">
@@ -7250,7 +7337,7 @@
       </c>
       <c r="R74" s="8"/>
       <c r="S74" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7276,17 +7363,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J75" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K75" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="9" t="s">
@@ -7299,7 +7388,7 @@
       </c>
       <c r="R75" s="8"/>
       <c r="S75" s="5" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7325,17 +7414,19 @@
         <v>317</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J76" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K76" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="10" t="s">
@@ -7372,17 +7463,19 @@
         <v>321</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J77" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K77" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="9" t="s">
@@ -7419,7 +7512,7 @@
         <v>325</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>793</v>
@@ -7431,7 +7524,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="10" t="s">
@@ -7444,7 +7537,7 @@
       </c>
       <c r="R78" s="8"/>
       <c r="S78" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7470,17 +7563,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K79" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="10" t="s">
@@ -7517,7 +7612,7 @@
         <v>333</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>793</v>
@@ -7529,7 +7624,7 @@
         <v>9</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>822</v>
+        <v>1006</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="10" t="s">
@@ -7542,7 +7637,7 @@
       </c>
       <c r="R80" s="8"/>
       <c r="S80" s="5" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7568,7 +7663,7 @@
         <v>337</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>793</v>
@@ -7580,7 +7675,7 @@
         <v>9</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="9" t="s">
@@ -7593,7 +7688,7 @@
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="5" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7619,7 +7714,7 @@
         <v>341</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>793</v>
@@ -7631,7 +7726,7 @@
         <v>9</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>906</v>
+        <v>1009</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="10" t="s">
@@ -7644,7 +7739,7 @@
       </c>
       <c r="R82" s="8"/>
       <c r="S82" s="5" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7670,7 +7765,7 @@
         <v>345</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>793</v>
@@ -7682,7 +7777,7 @@
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="10" t="s">
@@ -7695,7 +7790,7 @@
       </c>
       <c r="R83" s="8"/>
       <c r="S83" s="5" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7721,7 +7816,7 @@
         <v>349</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>793</v>
@@ -7733,7 +7828,7 @@
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="10" t="s">
@@ -7746,7 +7841,7 @@
       </c>
       <c r="R84" s="8"/>
       <c r="S84" s="5" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7772,7 +7867,7 @@
         <v>353</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>793</v>
@@ -7784,7 +7879,7 @@
         <v>9</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="10" t="s">
@@ -7797,7 +7892,7 @@
       </c>
       <c r="R85" s="8"/>
       <c r="S85" s="5" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7823,17 +7918,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J86" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K86" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="10" t="s">
@@ -7846,7 +7943,7 @@
       </c>
       <c r="R86" s="8"/>
       <c r="S86" s="5" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7872,17 +7969,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J87" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K87" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="10" t="s">
@@ -7895,7 +7994,7 @@
       </c>
       <c r="R87" s="8"/>
       <c r="S87" s="5" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7921,7 +8020,7 @@
         <v>365</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>793</v>
@@ -7933,7 +8032,7 @@
         <v>9</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="9" t="s">
@@ -7946,7 +8045,7 @@
       </c>
       <c r="R88" s="8"/>
       <c r="S88" s="5" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7972,19 +8071,19 @@
         <v>369</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="9" t="s">
@@ -7997,7 +8096,7 @@
       </c>
       <c r="R89" s="8"/>
       <c r="S89" s="5" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8023,19 +8122,19 @@
         <v>373</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>918</v>
+        <v>1010</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="10" t="s">
@@ -8048,7 +8147,7 @@
       </c>
       <c r="R90" s="8"/>
       <c r="S90" s="5" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8074,19 +8173,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="10" t="s">
@@ -8099,7 +8198,7 @@
       </c>
       <c r="R91" s="8"/>
       <c r="S91" s="5" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8125,17 +8224,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J92" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K92" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="9" t="s">
@@ -8148,7 +8249,7 @@
       </c>
       <c r="R92" s="8"/>
       <c r="S92" s="5" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8174,17 +8275,19 @@
         <v>385</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J93" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K93" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="9" t="s">
@@ -8197,7 +8300,7 @@
       </c>
       <c r="R93" s="8"/>
       <c r="S93" s="5" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8223,17 +8326,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J94" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K94" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="10" t="s">
@@ -8270,7 +8375,7 @@
         <v>393</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>793</v>
@@ -8282,7 +8387,7 @@
         <v>9</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="9" t="s">
@@ -8295,7 +8400,7 @@
       </c>
       <c r="R95" s="8"/>
       <c r="S95" s="5" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8321,19 +8426,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="10" t="s">
@@ -8346,7 +8451,7 @@
       </c>
       <c r="R96" s="8"/>
       <c r="S96" s="5" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8372,17 +8477,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J97" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K97" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="10" t="s">
@@ -8419,7 +8526,7 @@
         <v>405</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>795</v>
@@ -8431,7 +8538,7 @@
         <v>8</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>809</v>
+        <v>1000</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="10" t="s">
@@ -8444,7 +8551,7 @@
       </c>
       <c r="R98" s="8"/>
       <c r="S98" s="5" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8470,7 +8577,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>793</v>
@@ -8482,7 +8589,7 @@
         <v>9</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="10" t="s">
@@ -8495,7 +8602,7 @@
       </c>
       <c r="R99" s="8"/>
       <c r="S99" s="5" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8521,13 +8628,17 @@
         <v>413</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="10" t="s">
@@ -8540,7 +8651,7 @@
       </c>
       <c r="R100" s="8"/>
       <c r="S100" s="5" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8566,17 +8677,19 @@
         <v>417</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J101" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K101" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="10" t="s">
@@ -8613,19 +8726,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="10" t="s">
@@ -8638,7 +8751,7 @@
       </c>
       <c r="R102" s="8"/>
       <c r="S102" s="5" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8664,17 +8777,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J103" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K103" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="10" t="s">
@@ -8711,17 +8826,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J104" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K104" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="10" t="s">
@@ -8758,7 +8875,7 @@
         <v>432</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>793</v>
@@ -8770,7 +8887,7 @@
         <v>9</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>822</v>
+        <v>1006</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="9" t="s">
@@ -8783,7 +8900,7 @@
       </c>
       <c r="R105" s="8"/>
       <c r="S105" s="5" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8809,17 +8926,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J106" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K106" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="10" t="s">
@@ -8856,17 +8975,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J107" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K107" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="10" t="s">
@@ -8903,17 +9024,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J108" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K108" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="10" t="s">
@@ -8950,17 +9073,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J109" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K109" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="10" t="s">
@@ -8997,17 +9122,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J110" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K110" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="9" t="s">
@@ -9044,17 +9171,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J111" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K111" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="10" t="s">
@@ -9067,7 +9196,7 @@
       </c>
       <c r="R111" s="8"/>
       <c r="S111" s="5" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9093,19 +9222,19 @@
         <v>459</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="9" t="s">
@@ -9118,7 +9247,7 @@
       </c>
       <c r="R112" s="8"/>
       <c r="S112" s="5" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9144,7 +9273,7 @@
         <v>463</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>793</v>
@@ -9156,7 +9285,7 @@
         <v>9</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>802</v>
+        <v>1002</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="9" t="s">
@@ -9169,7 +9298,7 @@
       </c>
       <c r="R113" s="8"/>
       <c r="S113" s="5" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9195,17 +9324,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J114" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K114" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="10" t="s">
@@ -9218,7 +9349,7 @@
       </c>
       <c r="R114" s="8"/>
       <c r="S114" s="5" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9244,7 +9375,7 @@
         <v>471</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>793</v>
@@ -9256,7 +9387,7 @@
         <v>9</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="10" t="s">
@@ -9269,7 +9400,7 @@
       </c>
       <c r="R115" s="8"/>
       <c r="S115" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9295,17 +9426,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J116" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K116" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="10" t="s">
@@ -9318,7 +9451,7 @@
       </c>
       <c r="R116" s="8"/>
       <c r="S116" s="5" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9344,19 +9477,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="10" t="s">
@@ -9369,7 +9502,7 @@
       </c>
       <c r="R117" s="8"/>
       <c r="S117" s="5" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9395,19 +9528,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="10" t="s">
@@ -9420,7 +9553,7 @@
       </c>
       <c r="R118" s="8"/>
       <c r="S118" s="5" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9446,7 +9579,7 @@
         <v>487</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>793</v>
@@ -9458,7 +9591,7 @@
         <v>9</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="9" t="s">
@@ -9471,7 +9604,7 @@
       </c>
       <c r="R119" s="8"/>
       <c r="S119" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9497,17 +9630,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J120" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K120" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M120" s="4"/>
       <c r="N120" s="10" t="s">
@@ -9520,7 +9655,7 @@
       </c>
       <c r="R120" s="8"/>
       <c r="S120" s="5" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9546,13 +9681,17 @@
         <v>494</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="15" t="s">
@@ -9565,7 +9704,7 @@
       </c>
       <c r="R121" s="8"/>
       <c r="S121" s="5" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9591,13 +9730,17 @@
         <v>498</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="10" t="s">
@@ -9610,7 +9753,7 @@
       </c>
       <c r="R122" s="8"/>
       <c r="S122" s="5" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9636,19 +9779,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="10" t="s">
@@ -9661,7 +9804,7 @@
       </c>
       <c r="R123" s="8"/>
       <c r="S123" s="5" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9687,19 +9830,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
       <c r="M124" s="4"/>
       <c r="N124" s="10" t="s">
@@ -9712,7 +9855,7 @@
       </c>
       <c r="R124" s="8"/>
       <c r="S124" s="5" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9738,17 +9881,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="J125" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K125" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M125" s="4"/>
       <c r="N125" s="10" t="s">
@@ -9761,7 +9906,7 @@
       </c>
       <c r="R125" s="8"/>
       <c r="S125" s="5" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9787,7 +9932,7 @@
         <v>514</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>793</v>
@@ -9799,7 +9944,7 @@
         <v>9</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>814</v>
+        <v>1005</v>
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="10" t="s">
@@ -9812,7 +9957,7 @@
       </c>
       <c r="R126" s="8"/>
       <c r="S126" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9838,13 +9983,17 @@
         <v>518</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="10" t="s">
@@ -9857,7 +10006,7 @@
       </c>
       <c r="R127" s="8"/>
       <c r="S127" s="5" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9883,19 +10032,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>838</v>
+        <v>1007</v>
       </c>
       <c r="M128" s="4"/>
       <c r="N128" s="5" t="s">
@@ -9908,7 +10057,7 @@
       </c>
       <c r="R128" s="8"/>
       <c r="S128" s="5" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9934,13 +10083,17 @@
         <v>526</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="10" t="s">
@@ -9953,7 +10106,7 @@
       </c>
       <c r="R129" s="8"/>
       <c r="S129" s="5" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -9979,13 +10132,17 @@
         <v>530</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="10" t="s">
@@ -9998,7 +10155,7 @@
       </c>
       <c r="R130" s="8"/>
       <c r="S130" s="5" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -10024,19 +10181,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>793</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>805</v>
+        <v>1003</v>
       </c>
       <c r="M131" s="4"/>
       <c r="N131" s="10" t="s">
@@ -10049,7 +10206,7 @@
       </c>
       <c r="R131" s="8"/>
       <c r="S131" s="5" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
